--- a/Less02/01magazzino.xlsx
+++ b/Less02/01magazzino.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Il mio Drive\Lesson\IFOA\IFDM-25\repository\Less01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Il mio Drive\Lesson\IFOA\IFTS-FSTACK25\repository\Less02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDA264-BC35-45D1-A883-051039FB1043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C2A567-0122-4C4E-9BAA-9D71352527D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{6DBF5D86-9864-4110-9AAE-4BEB15F457F8}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -4734,7 +4734,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{0DA14409-4A83-40D6-BCEF-081B573D9FEB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
